--- a/NformTester/NformTester/keywordscripts/TST1125_DataLoggingWithMinAndMaxSampleInterval.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1125_DataLoggingWithMinAndMaxSampleInterval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3593,9 +3593,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3646,12 +3643,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3731,6 +3722,18 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4664,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4676,6 +4679,9 @@
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="36.75" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4734,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4753,13 +4759,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4769,13 +4775,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4794,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4825,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4850,7 +4856,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>577</v>
@@ -4860,22 +4866,22 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="2"/>
@@ -4891,7 +4897,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4910,13 +4916,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>19</v>
@@ -4947,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
@@ -4974,7 +4980,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>577</v>
@@ -4986,7 +4992,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5005,7 +5011,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>577</v>
@@ -5034,7 +5040,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>518</v>
@@ -5063,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>575</v>
@@ -5092,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>575</v>
@@ -5121,7 +5127,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>575</v>
@@ -5150,7 +5156,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>575</v>
@@ -5183,7 +5189,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>575</v>
@@ -5216,7 +5222,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>575</v>
@@ -5251,7 +5257,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>575</v>
@@ -5280,7 +5286,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>575</v>
@@ -5309,7 +5315,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>575</v>
@@ -5321,7 +5327,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5336,7 +5342,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>756</v>
@@ -5359,7 +5365,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>575</v>
@@ -5371,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5386,7 +5392,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>756</v>
@@ -5409,7 +5415,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>575</v>
@@ -5434,7 +5440,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>518</v>
@@ -5459,7 +5465,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>577</v>
@@ -5484,7 +5490,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>518</v>
@@ -5509,7 +5515,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>575</v>
@@ -5521,10 +5527,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J29" s="11">
         <v>1</v>
@@ -5540,7 +5546,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>756</v>
@@ -5563,7 +5569,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>575</v>
@@ -5575,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="5"/>
@@ -5590,7 +5596,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>575</v>
@@ -5602,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="5"/>
@@ -5617,7 +5623,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>575</v>
@@ -5642,7 +5648,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>518</v>
@@ -5667,7 +5673,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>577</v>
@@ -5692,7 +5698,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>518</v>
@@ -5717,7 +5723,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>575</v>
@@ -5729,10 +5735,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -5748,7 +5754,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>756</v>
@@ -5771,7 +5777,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>575</v>
@@ -5783,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
@@ -5798,7 +5804,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>575</v>
@@ -5810,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -5825,7 +5831,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>575</v>
@@ -5850,7 +5856,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>518</v>
@@ -5875,7 +5881,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>577</v>
@@ -5900,7 +5906,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>518</v>
@@ -5925,7 +5931,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>575</v>
@@ -5937,10 +5943,10 @@
         <v>7</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
@@ -5956,7 +5962,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>756</v>
@@ -5979,7 +5985,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>575</v>
@@ -5991,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
@@ -6006,7 +6012,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>575</v>
@@ -6018,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
@@ -6033,7 +6039,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>575</v>
@@ -6058,7 +6064,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>518</v>
@@ -6083,7 +6089,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>577</v>
@@ -6108,7 +6114,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>518</v>
@@ -6133,7 +6139,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>575</v>
@@ -6145,10 +6151,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J53" s="11">
         <v>1</v>
@@ -6164,7 +6170,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>756</v>
@@ -6187,7 +6193,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>575</v>
@@ -6199,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
@@ -6214,7 +6220,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>575</v>
@@ -6226,7 +6232,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
@@ -6241,7 +6247,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>575</v>
@@ -6266,7 +6272,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>518</v>
@@ -6291,7 +6297,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>577</v>
@@ -6316,7 +6322,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>518</v>
@@ -6341,7 +6347,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>575</v>
@@ -6353,10 +6359,10 @@
         <v>7</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
@@ -6372,7 +6378,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>756</v>
@@ -6395,7 +6401,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="5"/>
@@ -6414,7 +6420,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>575</v>
@@ -6426,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="5"/>
@@ -6441,7 +6447,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>575</v>
@@ -6453,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
@@ -6468,7 +6474,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>575</v>
@@ -6493,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>518</v>
@@ -6518,7 +6524,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>577</v>
@@ -6543,7 +6549,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>518</v>
@@ -6568,7 +6574,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>575</v>
@@ -6580,10 +6586,10 @@
         <v>7</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="J70" s="11">
         <v>10080</v>
@@ -6599,7 +6605,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>756</v>
@@ -6622,7 +6628,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>575</v>
@@ -6634,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="5"/>
@@ -6649,7 +6655,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>575</v>
@@ -6661,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
@@ -6676,7 +6682,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>575</v>
@@ -6701,7 +6707,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>518</v>
@@ -6726,7 +6732,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>577</v>
@@ -6751,7 +6757,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>518</v>
@@ -6776,7 +6782,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>575</v>
@@ -6788,10 +6794,10 @@
         <v>7</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J78" s="11">
         <v>10080</v>
@@ -6807,7 +6813,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>756</v>
@@ -6830,7 +6836,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>575</v>
@@ -6842,7 +6848,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
@@ -6857,7 +6863,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>575</v>
@@ -6869,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="5"/>
@@ -6884,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>575</v>
@@ -6909,7 +6915,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>518</v>
@@ -6934,7 +6940,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>577</v>
@@ -6959,7 +6965,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>518</v>
@@ -6984,7 +6990,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>575</v>
@@ -6996,10 +7002,10 @@
         <v>7</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J86" s="11">
         <v>10080</v>
@@ -7015,7 +7021,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>756</v>
@@ -7038,7 +7044,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>575</v>
@@ -7050,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
@@ -7065,7 +7071,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>575</v>
@@ -7077,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
@@ -7092,7 +7098,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>575</v>
@@ -7117,7 +7123,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>518</v>
@@ -7142,7 +7148,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>577</v>
@@ -7167,7 +7173,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>518</v>
@@ -7192,7 +7198,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>575</v>
@@ -7204,10 +7210,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J94" s="11">
         <v>10079</v>
@@ -7223,7 +7229,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>756</v>
@@ -7246,7 +7252,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="5"/>
@@ -7265,7 +7271,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>575</v>
@@ -7277,7 +7283,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="5"/>
@@ -7292,7 +7298,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>575</v>
@@ -7304,7 +7310,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="5"/>
@@ -7319,7 +7325,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>575</v>
@@ -7344,7 +7350,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>518</v>
@@ -7369,7 +7375,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>577</v>
@@ -7394,7 +7400,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>756</v>
@@ -7417,7 +7423,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>19</v>
@@ -7442,7 +7448,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>19</v>
@@ -7467,7 +7473,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>19</v>
@@ -7492,7 +7498,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>708</v>
@@ -7517,7 +7523,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>708</v>
@@ -7546,7 +7552,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>708</v>
@@ -7571,7 +7577,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>708</v>
@@ -7596,7 +7602,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>708</v>
@@ -7621,7 +7627,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>708</v>
@@ -7646,7 +7652,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>708</v>
@@ -7671,7 +7677,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>708</v>
@@ -7696,7 +7702,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>708</v>
@@ -7721,7 +7727,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>756</v>
@@ -7744,7 +7750,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>708</v>
@@ -7769,7 +7775,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="5"/>
@@ -7788,7 +7794,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="5"/>
@@ -7807,7 +7813,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>19</v>
@@ -7832,7 +7838,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>19</v>
@@ -7857,7 +7863,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>577</v>
@@ -7869,7 +7875,7 @@
         <v>56</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="5"/>
@@ -7884,7 +7890,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>577</v>
@@ -7909,7 +7915,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>585</v>
@@ -7934,7 +7940,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>577</v>
@@ -30376,27 +30382,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1125_DataLoggingWithMinAndMaxSampleInterval.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1125_DataLoggingWithMinAndMaxSampleInterval.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7672" uniqueCount="834">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3733,6 +3733,18 @@
   </si>
   <si>
     <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4665,10 +4677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4856,52 +4868,48 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>804</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="7"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -4922,19 +4930,17 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+        <v>832</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4953,47 +4959,49 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>796</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+        <v>583</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>830</v>
-      </c>
+      <c r="D10" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -5011,19 +5019,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -5043,10 +5051,10 @@
         <v>797</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>518</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>2</v>
@@ -5069,18 +5077,20 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>374</v>
+        <v>578</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>830</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -5098,19 +5108,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>375</v>
+        <v>174</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -5130,16 +5140,16 @@
         <v>797</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>374</v>
+        <v>525</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -5156,23 +5166,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>576</v>
+        <v>374</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -5189,23 +5195,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>576</v>
+        <v>375</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -5228,17 +5230,13 @@
         <v>575</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>576</v>
+        <v>374</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="11">
-        <v>4</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -5257,19 +5255,23 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>328</v>
+        <v>576</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -5286,19 +5288,23 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>329</v>
+        <v>576</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -5321,15 +5327,17 @@
         <v>575</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>330</v>
+        <v>576</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -5342,15 +5350,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>575</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="5"/>
@@ -5365,21 +5375,19 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="I23" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -5392,16 +5400,20 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
+        <v>575</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5415,19 +5427,17 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -5443,15 +5453,17 @@
         <v>797</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>805</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -5465,17 +5477,15 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5493,16 +5503,16 @@
         <v>797</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5518,23 +5528,17 @@
         <v>797</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="J29" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5546,15 +5550,17 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
@@ -5569,20 +5575,18 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5596,7 +5600,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>575</v>
@@ -5605,13 +5609,17 @@
         <v>330</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -5623,17 +5631,15 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5651,15 +5657,17 @@
         <v>789</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -5673,18 +5681,20 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>807</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -5698,13 +5708,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>2</v>
@@ -5723,26 +5733,20 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -5754,15 +5758,17 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2</v>
-      </c>
-      <c r="G38" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
@@ -5777,20 +5783,18 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5804,7 +5808,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>575</v>
@@ -5813,13 +5817,17 @@
         <v>330</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -5831,17 +5839,15 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -5859,15 +5865,17 @@
         <v>789</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I42" s="11"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -5881,18 +5889,20 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>808</v>
+      </c>
       <c r="I43" s="11"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5906,13 +5916,13 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>2</v>
@@ -5931,26 +5941,20 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="J45" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -5962,15 +5966,17 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="5"/>
@@ -5985,20 +5991,18 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -6012,7 +6016,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>575</v>
@@ -6021,13 +6025,17 @@
         <v>330</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1</v>
+      </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -6039,17 +6047,15 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
@@ -6067,15 +6073,17 @@
         <v>789</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I50" s="11"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6089,18 +6097,20 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>809</v>
+      </c>
       <c r="I51" s="11"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6114,13 +6124,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>2</v>
@@ -6139,26 +6149,20 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="J53" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -6170,15 +6174,17 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2</v>
-      </c>
-      <c r="G54" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -6193,20 +6199,18 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -6220,7 +6224,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>575</v>
@@ -6229,13 +6233,17 @@
         <v>330</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1</v>
+      </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -6247,17 +6255,15 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="5"/>
@@ -6275,15 +6281,17 @@
         <v>789</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -6297,18 +6305,20 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>799</v>
+      </c>
       <c r="I59" s="11"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -6322,13 +6332,13 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>2</v>
@@ -6347,26 +6357,20 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="J61" s="11">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -6378,15 +6382,17 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F62" s="5">
-        <v>2</v>
-      </c>
-      <c r="G62" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="5"/>
@@ -6396,16 +6402,22 @@
       <c r="N62" s="7"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="3:15" ht="15">
+    <row r="63" spans="3:15">
       <c r="C63" s="5">
         <v>62</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="D63" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="5"/>
@@ -6420,7 +6432,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>575</v>
@@ -6429,13 +6441,17 @@
         <v>330</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J64" s="11">
+        <v>2</v>
+      </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
@@ -6447,20 +6463,16 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>811</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -6469,22 +6481,16 @@
       <c r="N65" s="7"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="3:15">
+    <row r="66" spans="3:15" ht="15">
       <c r="C66" s="5">
         <v>65</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D66" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="5"/>
@@ -6502,15 +6508,17 @@
         <v>789</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I67" s="11"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -6524,18 +6532,20 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>811</v>
+      </c>
       <c r="I68" s="11"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -6549,13 +6559,13 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>2</v>
@@ -6574,26 +6584,20 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="J70" s="11">
-        <v>10080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -6605,15 +6609,17 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F71" s="5">
-        <v>2</v>
-      </c>
-      <c r="G71" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="5"/>
@@ -6628,20 +6634,18 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -6655,7 +6659,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>575</v>
@@ -6664,13 +6668,17 @@
         <v>330</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="I73" s="11"/>
-      <c r="J73" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="J73" s="11">
+        <v>10080</v>
+      </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -6682,17 +6690,15 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="5"/>
@@ -6710,15 +6716,17 @@
         <v>789</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I75" s="11"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -6732,18 +6740,20 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>812</v>
+      </c>
       <c r="I76" s="11"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -6757,13 +6767,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>2</v>
@@ -6782,26 +6792,20 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="J78" s="11">
-        <v>10080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -6813,15 +6817,17 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F79" s="5">
-        <v>2</v>
-      </c>
-      <c r="G79" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="5"/>
@@ -6836,20 +6842,18 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -6863,7 +6867,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>575</v>
@@ -6872,13 +6876,17 @@
         <v>330</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J81" s="11">
+        <v>10080</v>
+      </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -6890,17 +6898,15 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2</v>
+      </c>
+      <c r="G82" s="5"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="5"/>
@@ -6918,15 +6924,17 @@
         <v>789</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I83" s="11"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -6940,18 +6948,20 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>813</v>
+      </c>
       <c r="I84" s="11"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -6965,13 +6975,13 @@
         <v>84</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>2</v>
@@ -6990,26 +7000,20 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="J86" s="11">
-        <v>10080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -7021,15 +7025,17 @@
         <v>86</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F87" s="5">
-        <v>2</v>
-      </c>
-      <c r="G87" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
@@ -7044,20 +7050,18 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -7071,7 +7075,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>575</v>
@@ -7080,13 +7084,17 @@
         <v>330</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J89" s="11">
+        <v>10080</v>
+      </c>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -7098,17 +7106,15 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F90" s="5">
+        <v>2</v>
+      </c>
+      <c r="G90" s="5"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="J90" s="5"/>
@@ -7126,15 +7132,17 @@
         <v>789</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I91" s="11"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -7148,18 +7156,20 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>814</v>
+      </c>
       <c r="I92" s="11"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -7173,13 +7183,13 @@
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>2</v>
@@ -7198,26 +7208,20 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="J94" s="11">
-        <v>10079</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -7229,15 +7233,17 @@
         <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F95" s="5">
-        <v>2</v>
-      </c>
-      <c r="G95" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
       <c r="J95" s="5"/>
@@ -7247,16 +7253,22 @@
       <c r="N95" s="7"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="3:15" ht="15">
+    <row r="96" spans="3:15">
       <c r="C96" s="5">
         <v>95</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
+      <c r="D96" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
       <c r="J96" s="5"/>
@@ -7271,7 +7283,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>575</v>
@@ -7280,13 +7292,17 @@
         <v>330</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="I97" s="11"/>
-      <c r="J97" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J97" s="11">
+        <v>10079</v>
+      </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -7298,20 +7314,16 @@
         <v>97</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>808</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F98" s="5">
+        <v>2</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -7320,22 +7332,16 @@
       <c r="N98" s="7"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="3:15">
+    <row r="99" spans="3:15" ht="15">
       <c r="C99" s="5">
         <v>98</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D99" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="5"/>
@@ -7353,15 +7359,17 @@
         <v>789</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="I100" s="11"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -7378,15 +7386,17 @@
         <v>789</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>808</v>
+      </c>
       <c r="I101" s="11"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -7400,15 +7410,17 @@
         <v>101</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F102" s="5">
-        <v>5</v>
-      </c>
-      <c r="G102" s="5"/>
+        <v>575</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
       <c r="J102" s="5"/>
@@ -7426,10 +7438,10 @@
         <v>789</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>2</v>
@@ -7451,10 +7463,10 @@
         <v>789</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>2</v>
@@ -7473,17 +7485,15 @@
         <v>104</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F105" s="5">
+        <v>5</v>
+      </c>
+      <c r="G105" s="5"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="5"/>
@@ -7501,10 +7511,10 @@
         <v>789</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>2</v>
@@ -7526,20 +7536,16 @@
         <v>789</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H107" s="11">
-        <v>1</v>
-      </c>
-      <c r="I107" s="11">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -7555,10 +7561,10 @@
         <v>789</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>2</v>
@@ -7583,7 +7589,7 @@
         <v>708</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>709</v>
+        <v>166</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>2</v>
@@ -7608,13 +7614,17 @@
         <v>708</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H110" s="11">
+        <v>1</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -7633,7 +7643,7 @@
         <v>708</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>709</v>
+        <v>166</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>2</v>
@@ -7658,7 +7668,7 @@
         <v>708</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>2</v>
@@ -7683,7 +7693,7 @@
         <v>708</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>166</v>
+        <v>716</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>2</v>
@@ -7702,13 +7712,13 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>708</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>166</v>
+        <v>715</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>2</v>
@@ -7727,15 +7737,17 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F115" s="5">
-        <v>10</v>
-      </c>
-      <c r="G115" s="5"/>
+        <v>708</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="5"/>
@@ -7750,13 +7762,13 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>708</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>603</v>
+        <v>166</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>2</v>
@@ -7770,16 +7782,22 @@
       <c r="N116" s="7"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="3:15" ht="15">
+    <row r="117" spans="3:15">
       <c r="C117" s="5">
         <v>116</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="D117" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
       <c r="J117" s="5"/>
@@ -7789,15 +7807,19 @@
       <c r="N117" s="7"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="3:15" ht="15">
+    <row r="118" spans="3:15">
       <c r="C118" s="5">
         <v>117</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="5"/>
+      <c r="D118" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F118" s="5">
+        <v>10</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
@@ -7813,13 +7835,13 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>19</v>
+        <v>708</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>22</v>
+        <v>603</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>2</v>
@@ -7833,22 +7855,16 @@
       <c r="N119" s="7"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="3:15">
+    <row r="120" spans="3:15" ht="15">
       <c r="C120" s="5">
         <v>119</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D120" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
       <c r="J120" s="5"/>
@@ -7858,25 +7874,17 @@
       <c r="N120" s="7"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="3:15">
+    <row r="121" spans="3:15" ht="15">
       <c r="C121" s="5">
         <v>120</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>830</v>
-      </c>
+      <c r="D121" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="11"/>
       <c r="I121" s="11"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -7893,10 +7901,10 @@
         <v>789</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>2</v>
@@ -7918,10 +7926,10 @@
         <v>789</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>585</v>
+        <v>19</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>2</v>
@@ -7946,12 +7954,14 @@
         <v>577</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>830</v>
+      </c>
       <c r="I124" s="11"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -7961,13 +7971,23 @@
       <c r="O124" s="2"/>
     </row>
     <row r="125" spans="3:15">
-      <c r="C125" s="16"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="17"/>
+      <c r="C125" s="5">
+        <v>124</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H125" s="11"/>
-      <c r="I125" s="5"/>
+      <c r="I125" s="11"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
@@ -7976,13 +7996,23 @@
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="3:15">
-      <c r="C126" s="16"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="C126" s="5">
+        <v>125</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H126" s="11"/>
-      <c r="I126" s="5"/>
+      <c r="I126" s="11"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -7991,13 +8021,23 @@
       <c r="O126" s="2"/>
     </row>
     <row r="127" spans="3:15">
-      <c r="C127" s="16"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
+      <c r="C127" s="5">
+        <v>126</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
@@ -8007,11 +8047,11 @@
     </row>
     <row r="128" spans="3:15">
       <c r="C128" s="16"/>
-      <c r="D128" s="18"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="5"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="11"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -8022,11 +8062,11 @@
     </row>
     <row r="129" spans="3:15">
       <c r="C129" s="16"/>
-      <c r="D129" s="18"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="5"/>
+      <c r="H129" s="11"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -8095,12 +8135,12 @@
       <c r="N133" s="7"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="3:15" ht="15">
+    <row r="134" spans="3:15">
       <c r="C134" s="16"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -8112,10 +8152,10 @@
     </row>
     <row r="135" spans="3:15">
       <c r="C135" s="16"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -8127,10 +8167,10 @@
     </row>
     <row r="136" spans="3:15">
       <c r="C136" s="16"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -8140,12 +8180,12 @@
       <c r="N136" s="7"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="3:15">
+    <row r="137" spans="3:15" ht="15">
       <c r="C137" s="16"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -8157,12 +8197,12 @@
     </row>
     <row r="138" spans="3:15">
       <c r="C138" s="16"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -8172,12 +8212,12 @@
     </row>
     <row r="139" spans="3:15">
       <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
@@ -8191,8 +8231,8 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
@@ -8266,7 +8306,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="5"/>
+      <c r="H145" s="11"/>
       <c r="I145" s="11"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -8281,7 +8321,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="5"/>
+      <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -8311,7 +8351,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="H148" s="5"/>
       <c r="I148" s="11"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -8326,7 +8366,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
+      <c r="H149" s="5"/>
       <c r="I149" s="11"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -8455,12 +8495,12 @@
     </row>
     <row r="158" spans="3:15">
       <c r="C158" s="16"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
@@ -8469,44 +8509,83 @@
     </row>
     <row r="159" spans="3:15">
       <c r="C159" s="16"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="7"/>
     </row>
+    <row r="160" spans="3:15">
+      <c r="D160" s="18"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="7"/>
+    </row>
+    <row r="161" spans="4:14">
+      <c r="D161" s="8"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="7"/>
+    </row>
+    <row r="162" spans="4:14">
+      <c r="D162" s="8"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N159">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N162">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D97:D116 D6 D3:D4 D8:D62 D64:D95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F162">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G162">
+      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D100:D119 D67:D98 D11:D65 D3:D4 D6:D9">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E162">
       <formula1>Forms</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F159">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G159">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" display="http://10.130.112.3"/>
+    <hyperlink ref="H22" r:id="rId1" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NformTester/NformTester/keywordscripts/TST1125_DataLoggingWithMinAndMaxSampleInterval.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1125_DataLoggingWithMinAndMaxSampleInterval.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7672" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7673" uniqueCount="835">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3728,14 +3728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3745,6 +3737,18 @@
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3784,6 +3788,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4679,8 +4684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4862,13 +4867,13 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41066</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -4899,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4921,19 +4926,17 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>802</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F8" s="5">
         <v>10</v>
@@ -4950,10 +4953,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -4972,10 +4975,10 @@
         <v>828</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>803</v>
@@ -4990,8 +4993,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5011,10 +5018,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5041,7 +5046,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5070,7 +5075,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5089,7 +5094,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5101,7 +5106,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5130,7 +5135,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5159,7 +5164,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5187,10 +5192,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5218,7 +5223,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5245,11 +5250,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5281,9 +5284,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5314,7 +5319,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5346,6 +5351,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -7960,7 +7969,7 @@
         <v>56</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="5"/>
